--- a/Base de données/AU_AU.xlsx
+++ b/Base de données/AU_AU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AU1</t>
   </si>
@@ -24,7 +24,10 @@
     <t>AU2</t>
   </si>
   <si>
-    <t>occurrences</t>
+    <t>occurrences_AU_AU</t>
+  </si>
+  <si>
+    <t>idAU_AU</t>
   </si>
 </sst>
 </file>
@@ -363,22 +366,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Base de données/AU_AU.xlsx
+++ b/Base de données/AU_AU.xlsx
@@ -368,9 +368,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Base de données/AU_AU.xlsx
+++ b/Base de données/AU_AU.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="9315" windowHeight="7485"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="105">
   <si>
     <t>AU1</t>
   </si>
@@ -28,6 +28,309 @@
   </si>
   <si>
     <t>idAU_AU</t>
+  </si>
+  <si>
+    <t>NTOUMANIS N</t>
+  </si>
+  <si>
+    <t>FINCH C</t>
+  </si>
+  <si>
+    <t>DONALDSON A</t>
+  </si>
+  <si>
+    <t>JOWETT S</t>
+  </si>
+  <si>
+    <t>GUCCIARDI DF</t>
+  </si>
+  <si>
+    <t>EIME R</t>
+  </si>
+  <si>
+    <t>PAYNE W</t>
+  </si>
+  <si>
+    <t>GABBETT T</t>
+  </si>
+  <si>
+    <t>DAVIDS K</t>
+  </si>
+  <si>
+    <t>ROI GS</t>
+  </si>
+  <si>
+    <t>MESQUITA I</t>
+  </si>
+  <si>
+    <t>COLLINS D</t>
+  </si>
+  <si>
+    <t>LONSDALE C</t>
+  </si>
+  <si>
+    <t>HARVEY JT</t>
+  </si>
+  <si>
+    <t>GUSKIEWICZ K</t>
+  </si>
+  <si>
+    <t>GUAGLIANO JM</t>
+  </si>
+  <si>
+    <t>ROSENKRANZ RR</t>
+  </si>
+  <si>
+    <t>KOLT GS</t>
+  </si>
+  <si>
+    <t>VISEK AJ</t>
+  </si>
+  <si>
+    <t>HERRING SA</t>
+  </si>
+  <si>
+    <t>MERKEL DL</t>
+  </si>
+  <si>
+    <t>AUGHEY R</t>
+  </si>
+  <si>
+    <t>BILLAUT F</t>
+  </si>
+  <si>
+    <t>BLOM LC</t>
+  </si>
+  <si>
+    <t>WHITE P</t>
+  </si>
+  <si>
+    <t>SULLIVAN SJ</t>
+  </si>
+  <si>
+    <t>HANCOCK D</t>
+  </si>
+  <si>
+    <t>SEKULIC D</t>
+  </si>
+  <si>
+    <t>CICOGNANI E</t>
+  </si>
+  <si>
+    <t>MAZZONI D</t>
+  </si>
+  <si>
+    <t>TOTTI V</t>
+  </si>
+  <si>
+    <t>MOSCONI G</t>
+  </si>
+  <si>
+    <t>NANNI COSTA A</t>
+  </si>
+  <si>
+    <t>FILHO E</t>
+  </si>
+  <si>
+    <t>TENENBAUM G</t>
+  </si>
+  <si>
+    <t>CHAN DK</t>
+  </si>
+  <si>
+    <t>MACINTYRE T</t>
+  </si>
+  <si>
+    <t>MORAN A</t>
+  </si>
+  <si>
+    <t>JACKSON B</t>
+  </si>
+  <si>
+    <t>DIMMOCK JA</t>
+  </si>
+  <si>
+    <t>KROSHUS E</t>
+  </si>
+  <si>
+    <t>CASEY M</t>
+  </si>
+  <si>
+    <t>TELFORD A</t>
+  </si>
+  <si>
+    <t>MOONEY A</t>
+  </si>
+  <si>
+    <t>LEE H</t>
+  </si>
+  <si>
+    <t>MARTINDALE A</t>
+  </si>
+  <si>
+    <t>SHERMAN RT</t>
+  </si>
+  <si>
+    <t>THOMPSON RA</t>
+  </si>
+  <si>
+    <t>CARLESS D</t>
+  </si>
+  <si>
+    <t>BOEN F</t>
+  </si>
+  <si>
+    <t>DE CUYPER B</t>
+  </si>
+  <si>
+    <t>VANDE BROEK G</t>
+  </si>
+  <si>
+    <t>RUSSELL A</t>
+  </si>
+  <si>
+    <t>RICHARDS J</t>
+  </si>
+  <si>
+    <t>FOSTER C</t>
+  </si>
+  <si>
+    <t>SABISTON CM</t>
+  </si>
+  <si>
+    <t>MALLETT CJ</t>
+  </si>
+  <si>
+    <t>HARRIS BS</t>
+  </si>
+  <si>
+    <t>FLETCHER D</t>
+  </si>
+  <si>
+    <t>DAVIS L</t>
+  </si>
+  <si>
+    <t>MARTIN GINIS KA</t>
+  </si>
+  <si>
+    <t>POLLOCK N</t>
+  </si>
+  <si>
+    <t>MCCAULEY HL</t>
+  </si>
+  <si>
+    <t>TANCREDI DJ</t>
+  </si>
+  <si>
+    <t>SILVERMAN JG</t>
+  </si>
+  <si>
+    <t>DECKER MR</t>
+  </si>
+  <si>
+    <t>AUSTIN SB</t>
+  </si>
+  <si>
+    <t>MILLER E</t>
+  </si>
+  <si>
+    <t>RIVARA FP</t>
+  </si>
+  <si>
+    <t>SCHIFF MA</t>
+  </si>
+  <si>
+    <t>CHRISMAN SP</t>
+  </si>
+  <si>
+    <t>CHUNG SK</t>
+  </si>
+  <si>
+    <t>POULOS RG</t>
+  </si>
+  <si>
+    <t>SIEKANSKA M</t>
+  </si>
+  <si>
+    <t>BLECHARZ J</t>
+  </si>
+  <si>
+    <t>ZENIC N</t>
+  </si>
+  <si>
+    <t>SCHINKE RJ</t>
+  </si>
+  <si>
+    <t>ELBIN RJ</t>
+  </si>
+  <si>
+    <t>COVASSIN T</t>
+  </si>
+  <si>
+    <t>YOUNG JA</t>
+  </si>
+  <si>
+    <t>CHARITY MJ</t>
+  </si>
+  <si>
+    <t>GORE CJ</t>
+  </si>
+  <si>
+    <t>HARRIS B</t>
+  </si>
+  <si>
+    <t>EYS MA</t>
+  </si>
+  <si>
+    <t>NEWTON JD</t>
+  </si>
+  <si>
+    <t>EWING MT</t>
+  </si>
+  <si>
+    <t>MAKDISSI M</t>
+  </si>
+  <si>
+    <t>DAVIS G</t>
+  </si>
+  <si>
+    <t>ULJEVIC O</t>
+  </si>
+  <si>
+    <t>KONDRIC M</t>
+  </si>
+  <si>
+    <t>MASZCZYK A</t>
+  </si>
+  <si>
+    <t>RENSHAW I</t>
+  </si>
+  <si>
+    <t>RODEK J</t>
+  </si>
+  <si>
+    <t>ARAUJO D</t>
+  </si>
+  <si>
+    <t>HUTZLER Y</t>
+  </si>
+  <si>
+    <t>BARAK S</t>
+  </si>
+  <si>
+    <t>ULLAH S</t>
+  </si>
+  <si>
+    <t>MOLONY JT JR</t>
+  </si>
+  <si>
+    <t>STOUT JR</t>
+  </si>
+  <si>
+    <t>MARTINDALE R</t>
+  </si>
+  <si>
+    <t>NASH C</t>
   </si>
 </sst>
 </file>
@@ -366,10 +669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,6 +695,3576 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" t="s">
+        <v>67</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136" t="s">
+        <v>66</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>66</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>67</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" t="s">
+        <v>44</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" t="s">
+        <v>66</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" t="s">
+        <v>67</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>70</v>
+      </c>
+      <c r="C149" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>70</v>
+      </c>
+      <c r="C150" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>71</v>
+      </c>
+      <c r="C151" t="s">
+        <v>66</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>71</v>
+      </c>
+      <c r="C152" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>71</v>
+      </c>
+      <c r="C154" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>71</v>
+      </c>
+      <c r="C155" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>71</v>
+      </c>
+      <c r="C156" t="s">
+        <v>71</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>72</v>
+      </c>
+      <c r="C157" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" t="s">
+        <v>72</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>73</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160" t="s">
+        <v>72</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" t="s">
+        <v>73</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>74</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>74</v>
+      </c>
+      <c r="C163" t="s">
+        <v>72</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" t="s">
+        <v>73</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>74</v>
+      </c>
+      <c r="C165" t="s">
+        <v>74</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>75</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>75</v>
+      </c>
+      <c r="C167" t="s">
+        <v>72</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>75</v>
+      </c>
+      <c r="C168" t="s">
+        <v>73</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>75</v>
+      </c>
+      <c r="C169" t="s">
+        <v>74</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>75</v>
+      </c>
+      <c r="C170" t="s">
+        <v>75</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>77</v>
+      </c>
+      <c r="C173" t="s">
+        <v>77</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>78</v>
+      </c>
+      <c r="C174" t="s">
+        <v>77</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>78</v>
+      </c>
+      <c r="C175" t="s">
+        <v>78</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>79</v>
+      </c>
+      <c r="C176" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>80</v>
+      </c>
+      <c r="C177" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C178" t="s">
+        <v>80</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179" t="s">
+        <v>81</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>82</v>
+      </c>
+      <c r="C180" t="s">
+        <v>81</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>82</v>
+      </c>
+      <c r="C181" t="s">
+        <v>82</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>83</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>83</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185" t="s">
+        <v>83</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>84</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>84</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>84</v>
+      </c>
+      <c r="C189" t="s">
+        <v>83</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>84</v>
+      </c>
+      <c r="C190" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>85</v>
+      </c>
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>85</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" t="s">
+        <v>85</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>86</v>
+      </c>
+      <c r="C194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>86</v>
+      </c>
+      <c r="C196" t="s">
+        <v>86</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>87</v>
+      </c>
+      <c r="C197" t="s">
+        <v>87</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>88</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>88</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>88</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>88</v>
+      </c>
+      <c r="C201" t="s">
+        <v>29</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>88</v>
+      </c>
+      <c r="C202" t="s">
+        <v>88</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>89</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>89</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>89</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>89</v>
+      </c>
+      <c r="C206" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>89</v>
+      </c>
+      <c r="C207" t="s">
+        <v>88</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" t="s">
+        <v>89</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>90</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>90</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>90</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>90</v>
+      </c>
+      <c r="C212" t="s">
+        <v>29</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>90</v>
+      </c>
+      <c r="C213" t="s">
+        <v>88</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>90</v>
+      </c>
+      <c r="C214" t="s">
+        <v>89</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>90</v>
+      </c>
+      <c r="C215" t="s">
+        <v>90</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>91</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>91</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>91</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>91</v>
+      </c>
+      <c r="C219" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>91</v>
+      </c>
+      <c r="C220" t="s">
+        <v>88</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>91</v>
+      </c>
+      <c r="C221" t="s">
+        <v>89</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>91</v>
+      </c>
+      <c r="C222" t="s">
+        <v>90</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>91</v>
+      </c>
+      <c r="C223" t="s">
+        <v>91</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>92</v>
+      </c>
+      <c r="C224" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>92</v>
+      </c>
+      <c r="C225" t="s">
+        <v>92</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>93</v>
+      </c>
+      <c r="C226" t="s">
+        <v>31</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>93</v>
+      </c>
+      <c r="C227" t="s">
+        <v>79</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>93</v>
+      </c>
+      <c r="C228" t="s">
+        <v>92</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>93</v>
+      </c>
+      <c r="C229" t="s">
+        <v>93</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>94</v>
+      </c>
+      <c r="C230" t="s">
+        <v>94</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>95</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>95</v>
+      </c>
+      <c r="C232" t="s">
+        <v>95</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>96</v>
+      </c>
+      <c r="C233" t="s">
+        <v>31</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" t="s">
+        <v>79</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>96</v>
+      </c>
+      <c r="C235" t="s">
+        <v>93</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>96</v>
+      </c>
+      <c r="C236" t="s">
+        <v>96</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>97</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>97</v>
+      </c>
+      <c r="C238" t="s">
+        <v>97</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>98</v>
+      </c>
+      <c r="C239" t="s">
+        <v>98</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>99</v>
+      </c>
+      <c r="C240" t="s">
+        <v>98</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>99</v>
+      </c>
+      <c r="C241" t="s">
+        <v>99</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>100</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>100</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>100</v>
+      </c>
+      <c r="C244" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>100</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>100</v>
+      </c>
+      <c r="C246" t="s">
+        <v>100</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>101</v>
+      </c>
+      <c r="C247" t="s">
+        <v>24</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>101</v>
+      </c>
+      <c r="C248" t="s">
+        <v>101</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>102</v>
+      </c>
+      <c r="C249" t="s">
+        <v>102</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>103</v>
+      </c>
+      <c r="C250" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>103</v>
+      </c>
+      <c r="C251" t="s">
+        <v>49</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>103</v>
+      </c>
+      <c r="C252" t="s">
+        <v>103</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>104</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>104</v>
+      </c>
+      <c r="C254" t="s">
+        <v>49</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>104</v>
+      </c>
+      <c r="C255" t="s">
+        <v>103</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>104</v>
+      </c>
+      <c r="C256" t="s">
+        <v>104</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -398,6 +4272,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -410,6 +4285,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Base de données/AU_AU.xlsx
+++ b/Base de données/AU_AU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="206">
   <si>
     <t>AU1</t>
   </si>
@@ -331,6 +331,309 @@
   </si>
   <si>
     <t>NASH C</t>
+  </si>
+  <si>
+    <t>ntouman</t>
+  </si>
+  <si>
+    <t>finch_c</t>
+  </si>
+  <si>
+    <t>donalds</t>
+  </si>
+  <si>
+    <t>jowett_</t>
+  </si>
+  <si>
+    <t>gucciar</t>
+  </si>
+  <si>
+    <t>eime_r</t>
+  </si>
+  <si>
+    <t>payne_w</t>
+  </si>
+  <si>
+    <t>gabbett</t>
+  </si>
+  <si>
+    <t>davids_</t>
+  </si>
+  <si>
+    <t>roi_gs</t>
+  </si>
+  <si>
+    <t>mesquit</t>
+  </si>
+  <si>
+    <t>collins</t>
+  </si>
+  <si>
+    <t>lonsdal</t>
+  </si>
+  <si>
+    <t>harvey_2</t>
+  </si>
+  <si>
+    <t>guskiew</t>
+  </si>
+  <si>
+    <t>guaglia</t>
+  </si>
+  <si>
+    <t>rosenkr</t>
+  </si>
+  <si>
+    <t>kolt_gs</t>
+  </si>
+  <si>
+    <t>visek_a</t>
+  </si>
+  <si>
+    <t>herring</t>
+  </si>
+  <si>
+    <t>merkel_</t>
+  </si>
+  <si>
+    <t>aughey_</t>
+  </si>
+  <si>
+    <t>billaut</t>
+  </si>
+  <si>
+    <t>blom_lc</t>
+  </si>
+  <si>
+    <t>white_p</t>
+  </si>
+  <si>
+    <t>sulliva</t>
+  </si>
+  <si>
+    <t>hancock</t>
+  </si>
+  <si>
+    <t>sekulic</t>
+  </si>
+  <si>
+    <t>cicogna</t>
+  </si>
+  <si>
+    <t>mazzoni</t>
+  </si>
+  <si>
+    <t>totti_v</t>
+  </si>
+  <si>
+    <t>mosconi</t>
+  </si>
+  <si>
+    <t>nanni_c</t>
+  </si>
+  <si>
+    <t>filho_e</t>
+  </si>
+  <si>
+    <t>tenenba</t>
+  </si>
+  <si>
+    <t>chan_dk</t>
+  </si>
+  <si>
+    <t>macinty</t>
+  </si>
+  <si>
+    <t>moran_a</t>
+  </si>
+  <si>
+    <t>jackson</t>
+  </si>
+  <si>
+    <t>dimmock</t>
+  </si>
+  <si>
+    <t>kroshus</t>
+  </si>
+  <si>
+    <t>casey_m</t>
+  </si>
+  <si>
+    <t>telford</t>
+  </si>
+  <si>
+    <t>mooney_</t>
+  </si>
+  <si>
+    <t>lee_h</t>
+  </si>
+  <si>
+    <t>martind</t>
+  </si>
+  <si>
+    <t>sherman</t>
+  </si>
+  <si>
+    <t>thompso</t>
+  </si>
+  <si>
+    <t>carless</t>
+  </si>
+  <si>
+    <t>boen_f</t>
+  </si>
+  <si>
+    <t>de_cuyp</t>
+  </si>
+  <si>
+    <t>vande_b</t>
+  </si>
+  <si>
+    <t>russell</t>
+  </si>
+  <si>
+    <t>richard</t>
+  </si>
+  <si>
+    <t>foster_</t>
+  </si>
+  <si>
+    <t>sabisto</t>
+  </si>
+  <si>
+    <t>mallett</t>
+  </si>
+  <si>
+    <t>harris_1</t>
+  </si>
+  <si>
+    <t>fletche</t>
+  </si>
+  <si>
+    <t>davis_l</t>
+  </si>
+  <si>
+    <t>martin_</t>
+  </si>
+  <si>
+    <t>pollock</t>
+  </si>
+  <si>
+    <t>mccaule</t>
+  </si>
+  <si>
+    <t>tancred</t>
+  </si>
+  <si>
+    <t>silverm</t>
+  </si>
+  <si>
+    <t>decker_</t>
+  </si>
+  <si>
+    <t>austin_</t>
+  </si>
+  <si>
+    <t>miller_</t>
+  </si>
+  <si>
+    <t>rivara_</t>
+  </si>
+  <si>
+    <t>schiff_</t>
+  </si>
+  <si>
+    <t>chrisma</t>
+  </si>
+  <si>
+    <t>chung_s</t>
+  </si>
+  <si>
+    <t>poulos_</t>
+  </si>
+  <si>
+    <t>siekans</t>
+  </si>
+  <si>
+    <t>blechar</t>
+  </si>
+  <si>
+    <t>zenic_n</t>
+  </si>
+  <si>
+    <t>schinke</t>
+  </si>
+  <si>
+    <t>elbin_r</t>
+  </si>
+  <si>
+    <t>covassi</t>
+  </si>
+  <si>
+    <t>young_j</t>
+  </si>
+  <si>
+    <t>charity</t>
+  </si>
+  <si>
+    <t>gore_cj</t>
+  </si>
+  <si>
+    <t>harris_</t>
+  </si>
+  <si>
+    <t>eys_ma</t>
+  </si>
+  <si>
+    <t>newton_</t>
+  </si>
+  <si>
+    <t>ewing_m</t>
+  </si>
+  <si>
+    <t>makdiss</t>
+  </si>
+  <si>
+    <t>davis_g</t>
+  </si>
+  <si>
+    <t>uljevic</t>
+  </si>
+  <si>
+    <t>kondric</t>
+  </si>
+  <si>
+    <t>maszczy</t>
+  </si>
+  <si>
+    <t>renshaw</t>
+  </si>
+  <si>
+    <t>rodek_j</t>
+  </si>
+  <si>
+    <t>araujo_</t>
+  </si>
+  <si>
+    <t>hutzler</t>
+  </si>
+  <si>
+    <t>barak_s</t>
+  </si>
+  <si>
+    <t>ullah_s</t>
+  </si>
+  <si>
+    <t>molony_</t>
+  </si>
+  <si>
+    <t>stout_j</t>
+  </si>
+  <si>
+    <t>martind1</t>
+  </si>
+  <si>
+    <t>nash_c</t>
   </si>
 </sst>
 </file>
@@ -673,11 +976,14 @@
   <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A256"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -700,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -714,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -728,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -742,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -756,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -770,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -784,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -798,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -812,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -826,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -840,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -854,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -868,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -882,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -896,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -910,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -924,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -938,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -952,7 +1258,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -966,7 +1272,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -980,7 +1286,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -994,7 +1300,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1008,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1022,7 +1328,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1036,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -1050,7 +1356,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -1064,7 +1370,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1078,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -1092,7 +1398,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -1106,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -1120,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -1134,7 +1440,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
@@ -1148,7 +1454,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1162,7 +1468,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1176,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -1190,7 +1496,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
@@ -1204,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
@@ -1218,7 +1524,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -1232,7 +1538,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -1246,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1260,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1274,7 +1580,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -1288,7 +1594,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1302,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1316,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -1330,7 +1636,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -1344,7 +1650,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
@@ -1358,7 +1664,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -1372,7 +1678,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -1386,7 +1692,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
@@ -1400,7 +1706,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -1414,7 +1720,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -1428,7 +1734,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
         <v>33</v>
@@ -1442,7 +1748,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -1456,7 +1762,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
@@ -1470,7 +1776,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
         <v>33</v>
@@ -1484,7 +1790,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
         <v>34</v>
@@ -1498,7 +1804,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -1512,7 +1818,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
@@ -1526,7 +1832,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
@@ -1540,7 +1846,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
         <v>34</v>
@@ -1554,7 +1860,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -1568,7 +1874,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -1582,7 +1888,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
         <v>32</v>
@@ -1596,7 +1902,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
         <v>33</v>
@@ -1610,7 +1916,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
@@ -1624,7 +1930,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
         <v>35</v>
@@ -1638,7 +1944,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -1652,7 +1958,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
         <v>37</v>
@@ -1666,7 +1972,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
         <v>37</v>
@@ -1680,7 +1986,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
@@ -1694,7 +2000,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -1708,7 +2014,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
@@ -1722,7 +2028,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
         <v>40</v>
@@ -1736,7 +2042,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
         <v>40</v>
@@ -1750,7 +2056,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
         <v>41</v>
@@ -1764,7 +2070,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -1778,7 +2084,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -1792,7 +2098,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
         <v>42</v>
@@ -1806,7 +2112,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -1820,7 +2126,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -1834,7 +2140,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
         <v>42</v>
@@ -1848,7 +2154,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
         <v>43</v>
@@ -1862,7 +2168,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C85" t="s">
         <v>44</v>
@@ -1876,7 +2182,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -1890,7 +2196,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -1904,7 +2210,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -1918,7 +2224,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
         <v>45</v>
@@ -1932,7 +2238,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -1946,7 +2252,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -1960,7 +2266,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -1974,7 +2280,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>45</v>
@@ -1988,7 +2294,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s">
         <v>46</v>
@@ -2002,7 +2308,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -2016,7 +2322,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -2030,7 +2336,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -2044,7 +2350,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
         <v>45</v>
@@ -2058,7 +2364,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C99" t="s">
         <v>46</v>
@@ -2072,7 +2378,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
         <v>47</v>
@@ -2086,7 +2392,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -2100,7 +2406,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C102" t="s">
         <v>48</v>
@@ -2114,7 +2420,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
         <v>15</v>
@@ -2128,7 +2434,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
         <v>49</v>
@@ -2142,7 +2448,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="C105" t="s">
         <v>44</v>
@@ -2156,7 +2462,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="C106" t="s">
         <v>50</v>
@@ -2170,7 +2476,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
         <v>44</v>
@@ -2184,7 +2490,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
         <v>50</v>
@@ -2198,7 +2504,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
         <v>51</v>
@@ -2212,7 +2518,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
         <v>52</v>
@@ -2226,7 +2532,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
         <v>53</v>
@@ -2240,7 +2546,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
         <v>53</v>
@@ -2254,7 +2560,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="C113" t="s">
         <v>54</v>
@@ -2268,7 +2574,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="C114" t="s">
         <v>53</v>
@@ -2282,7 +2588,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="C115" t="s">
         <v>54</v>
@@ -2296,7 +2602,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="C116" t="s">
         <v>55</v>
@@ -2310,7 +2616,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
         <v>56</v>
@@ -2324,7 +2630,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
         <v>57</v>
@@ -2338,7 +2644,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
         <v>57</v>
@@ -2352,7 +2658,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
         <v>58</v>
@@ -2366,7 +2672,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s">
         <v>59</v>
@@ -2380,7 +2686,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -2394,7 +2700,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -2408,7 +2714,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C124" t="s">
         <v>60</v>
@@ -2422,7 +2728,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C125" t="s">
         <v>22</v>
@@ -2436,7 +2742,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -2450,7 +2756,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
         <v>61</v>
@@ -2464,7 +2770,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
         <v>62</v>
@@ -2478,7 +2784,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -2492,7 +2798,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="C130" t="s">
         <v>63</v>
@@ -2506,7 +2812,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="C131" t="s">
         <v>64</v>
@@ -2520,7 +2826,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="C132" t="s">
         <v>65</v>
@@ -2534,7 +2840,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
         <v>66</v>
@@ -2548,7 +2854,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="C134" t="s">
         <v>66</v>
@@ -2562,7 +2868,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s">
         <v>67</v>
@@ -2576,7 +2882,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s">
         <v>66</v>
@@ -2590,7 +2896,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="C137" t="s">
         <v>67</v>
@@ -2604,7 +2910,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -2618,7 +2924,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="C139" t="s">
         <v>66</v>
@@ -2632,7 +2938,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="C140" t="s">
         <v>67</v>
@@ -2646,7 +2952,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -2660,7 +2966,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
         <v>69</v>
@@ -2674,7 +2980,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C143" t="s">
         <v>44</v>
@@ -2688,7 +2994,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C144" t="s">
         <v>50</v>
@@ -2702,7 +3008,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C145" t="s">
         <v>51</v>
@@ -2716,7 +3022,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C146" t="s">
         <v>66</v>
@@ -2730,7 +3036,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C147" t="s">
         <v>67</v>
@@ -2744,7 +3050,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -2758,7 +3064,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C149" t="s">
         <v>69</v>
@@ -2772,7 +3078,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C150" t="s">
         <v>70</v>
@@ -2786,7 +3092,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C151" t="s">
         <v>66</v>
@@ -2800,7 +3106,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C152" t="s">
         <v>67</v>
@@ -2814,7 +3120,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -2828,7 +3134,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C154" t="s">
         <v>69</v>
@@ -2842,7 +3148,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C155" t="s">
         <v>70</v>
@@ -2856,7 +3162,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C156" t="s">
         <v>71</v>
@@ -2870,7 +3176,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="C157" t="s">
         <v>23</v>
@@ -2884,7 +3190,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s">
         <v>72</v>
@@ -2898,7 +3204,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="C159" t="s">
         <v>23</v>
@@ -2912,7 +3218,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="C160" t="s">
         <v>72</v>
@@ -2926,7 +3232,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="C161" t="s">
         <v>73</v>
@@ -2940,7 +3246,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s">
         <v>23</v>
@@ -2954,7 +3260,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C163" t="s">
         <v>72</v>
@@ -2968,7 +3274,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C164" t="s">
         <v>73</v>
@@ -2982,7 +3288,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
         <v>74</v>
@@ -2996,7 +3302,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="C166" t="s">
         <v>23</v>
@@ -3010,7 +3316,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
         <v>72</v>
@@ -3024,7 +3330,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="C168" t="s">
         <v>73</v>
@@ -3038,7 +3344,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="C169" t="s">
         <v>74</v>
@@ -3052,7 +3358,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="C170" t="s">
         <v>75</v>
@@ -3066,7 +3372,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -3080,7 +3386,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C172" t="s">
         <v>76</v>
@@ -3094,7 +3400,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
         <v>77</v>
@@ -3108,7 +3414,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s">
         <v>77</v>
@@ -3122,7 +3428,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="C175" t="s">
         <v>78</v>
@@ -3136,7 +3442,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="C176" t="s">
         <v>79</v>
@@ -3150,7 +3456,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C177" t="s">
         <v>38</v>
@@ -3164,7 +3470,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
         <v>80</v>
@@ -3178,7 +3484,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
         <v>81</v>
@@ -3192,7 +3498,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
         <v>81</v>
@@ -3206,7 +3512,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="C181" t="s">
         <v>82</v>
@@ -3220,7 +3526,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -3234,7 +3540,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
         <v>10</v>
@@ -3248,7 +3554,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
         <v>17</v>
@@ -3262,7 +3568,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="C185" t="s">
         <v>83</v>
@@ -3276,7 +3582,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -3290,7 +3596,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="C187" t="s">
         <v>10</v>
@@ -3304,7 +3610,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="C188" t="s">
         <v>17</v>
@@ -3318,7 +3624,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="C189" t="s">
         <v>83</v>
@@ -3332,7 +3638,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="C190" t="s">
         <v>84</v>
@@ -3346,7 +3652,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="C191" t="s">
         <v>25</v>
@@ -3360,7 +3666,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="C192" t="s">
         <v>26</v>
@@ -3374,7 +3680,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="C193" t="s">
         <v>85</v>
@@ -3388,7 +3694,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="C194" t="s">
         <v>22</v>
@@ -3402,7 +3708,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -3416,7 +3722,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="C196" t="s">
         <v>86</v>
@@ -3430,7 +3736,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="C197" t="s">
         <v>87</v>
@@ -3444,7 +3750,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3458,7 +3764,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -3472,7 +3778,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -3486,7 +3792,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -3500,7 +3806,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C202" t="s">
         <v>88</v>
@@ -3514,7 +3820,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3528,7 +3834,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -3542,7 +3848,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -3556,7 +3862,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -3570,7 +3876,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C207" t="s">
         <v>88</v>
@@ -3584,7 +3890,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C208" t="s">
         <v>89</v>
@@ -3598,7 +3904,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3612,7 +3918,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -3626,7 +3932,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -3640,7 +3946,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -3654,7 +3960,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C213" t="s">
         <v>88</v>
@@ -3668,7 +3974,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C214" t="s">
         <v>89</v>
@@ -3682,7 +3988,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C215" t="s">
         <v>90</v>
@@ -3696,7 +4002,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3710,7 +4016,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -3724,7 +4030,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -3738,7 +4044,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -3752,7 +4058,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C220" t="s">
         <v>88</v>
@@ -3766,7 +4072,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C221" t="s">
         <v>89</v>
@@ -3780,7 +4086,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C222" t="s">
         <v>90</v>
@@ -3794,7 +4100,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C223" t="s">
         <v>91</v>
@@ -3808,7 +4114,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="C224" t="s">
         <v>31</v>
@@ -3822,7 +4128,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="C225" t="s">
         <v>92</v>
@@ -3836,7 +4142,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C226" t="s">
         <v>31</v>
@@ -3850,7 +4156,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C227" t="s">
         <v>79</v>
@@ -3864,7 +4170,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C228" t="s">
         <v>92</v>
@@ -3878,7 +4184,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C229" t="s">
         <v>93</v>
@@ -3892,7 +4198,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="C230" t="s">
         <v>94</v>
@@ -3906,7 +4212,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
@@ -3920,7 +4226,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="C232" t="s">
         <v>95</v>
@@ -3934,7 +4240,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="C233" t="s">
         <v>31</v>
@@ -3948,7 +4254,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="C234" t="s">
         <v>79</v>
@@ -3962,7 +4268,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="C235" t="s">
         <v>93</v>
@@ -3976,7 +4282,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="C236" t="s">
         <v>96</v>
@@ -3990,7 +4296,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
@@ -4004,7 +4310,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="C238" t="s">
         <v>97</v>
@@ -4018,7 +4324,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="C239" t="s">
         <v>98</v>
@@ -4032,7 +4338,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="C240" t="s">
         <v>98</v>
@@ -4046,7 +4352,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="C241" t="s">
         <v>99</v>
@@ -4060,7 +4366,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4074,7 +4380,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -4088,7 +4394,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C244" t="s">
         <v>11</v>
@@ -4102,7 +4408,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -4116,7 +4422,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C246" t="s">
         <v>100</v>
@@ -4130,7 +4436,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C247" t="s">
         <v>24</v>
@@ -4144,7 +4450,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C248" t="s">
         <v>101</v>
@@ -4158,7 +4464,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="C249" t="s">
         <v>102</v>
@@ -4172,7 +4478,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C250" t="s">
         <v>15</v>
@@ -4186,7 +4492,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C251" t="s">
         <v>49</v>
@@ -4200,7 +4506,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C252" t="s">
         <v>103</v>
@@ -4214,7 +4520,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C253" t="s">
         <v>15</v>
@@ -4228,7 +4534,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C254" t="s">
         <v>49</v>
@@ -4242,7 +4548,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C255" t="s">
         <v>103</v>
@@ -4256,13 +4562,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C256" t="s">
         <v>104</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
